--- a/database/httpswikileaksorg.xlsx
+++ b/database/httpswikileaksorg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,438 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="#"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="#submit"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Submit</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="#submit_help_after"</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>After Submitting</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="#submit_help_contact"</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>How to contact WikiLeaks?</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="#submit_help_tips"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tips for Sources</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="#submit_help_tor"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>What is Tor?</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="+-Corporations-+.html"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Corporations</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="+-Global-Economy-+.html"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Global Economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="+-Government-+.html"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="+-Intelligence-+.html"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="+-International-Politics-+.html"</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>International Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="+-War-Military-+.html"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>War &amp;amp; Military</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="/amazon-atlas/"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>11 October 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="/dealmaker/Al-Yousef/"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dealmaker: Al Yousef</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="/intolerancenetwork/"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>The Intolerance Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="/opcw-douma/#OPCW-DOUMA%20-%20Release%20Part%204"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>23 October 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="/popeorders/"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>30 January 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://our.wikileaks.org"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>our.wikileaks.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://shop.wikileaks.org/donate"</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Donate</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://shoppinglist.wikileaks.org"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>US Embassy Shopping List</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://tails.boum.org"</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Tails</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://tails.boum.org/"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Tails</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>WikiLeaks</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org/-Leaks-.html"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Leaks</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org/-News-.html"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org/-Partners-.html"</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Partners</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org/What-is-WikiLeaks.html"</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>About</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org/fishrot/"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>12 November 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org/talk"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/talk</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.org/verify-upload-address.txt"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Verify</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://wikileaks.shop/"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Shop</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://www.bitcoin.org/"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://www.couragefound.org"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.couragefound.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://www.couragefound.org/"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Courage</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://www.torproject.org"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Tor</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://wikileaks.org/href="https://www.torproject.org/"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Tor Project</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
